--- a/data/trans_dic/P12B1_3_R-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P12B1_3_R-Edad-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N17"/>
+  <dimension ref="A1:T18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -529,12 +530,18 @@
     <col width="14" customWidth="1" min="12" max="12"/>
     <col width="14" customWidth="1" min="13" max="13"/>
     <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+    <col width="14" customWidth="1" min="18" max="18"/>
+    <col width="14" customWidth="1" min="19" max="19"/>
+    <col width="14" customWidth="1" min="20" max="20"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que requiere cuidados especiales &gt;=60 años</t>
+          <t>Población que requiere cuidados especiales &gt;=60 años (tasa de respuesta: 99,06%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -546,22 +553,28 @@
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="K1" s="3" t="n"/>
       <c r="L1" s="3" t="n"/>
       <c r="M1" s="3" t="n"/>
       <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
+      <c r="R1" s="3" t="n"/>
+      <c r="S1" s="3" t="n"/>
+      <c r="T1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -583,47 +596,77 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="L2" s="3" t="inlineStr">
+      <c r="P2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="M2" s="3" t="inlineStr">
+      <c r="Q2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="N2" s="3" t="inlineStr">
+      <c r="R2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="S2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
+        </is>
+      </c>
+      <c r="T2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
         </is>
       </c>
     </row>
@@ -642,6 +685,12 @@
       <c r="L3" s="2" t="n"/>
       <c r="M3" s="2" t="n"/>
       <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+      <c r="R3" s="2" t="n"/>
+      <c r="S3" s="2" t="n"/>
+      <c r="T3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -656,62 +705,92 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>87,26%</t>
+          <t>3,8%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>25,31%</t>
+          <t>1,49%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>23,71%</t>
+          <t>1,5%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>50,51%</t>
+          <t>3,09%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
+          <t>2,83%</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>0,86%</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>56,65%</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>36,41%</t>
-        </is>
-      </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>51,24%</t>
+          <t>1,05%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>60,53%</t>
+          <t>1,16%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>33,05%</t>
+          <t>2,98%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>28,28%</t>
+          <t>3,39%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>50,88%</t>
+          <t>0,79%</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>1,97%</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>1,27%</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>1,33%</t>
+        </is>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>3,03%</t>
+        </is>
+      </c>
+      <c r="S4" s="2" t="inlineStr">
+        <is>
+          <t>3,09%</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>0,83%</t>
         </is>
       </c>
     </row>
@@ -724,62 +803,92 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>28,83; 100,0</t>
+          <t>1,41; 8,08</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 66,84</t>
+          <t>0,0; 4,96</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 68,38</t>
+          <t>0,0; 5,59</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>16,14; 85,39</t>
+          <t>0,92; 9,19</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0; 36,25</t>
+          <t>0,88; 6,91</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 100,0</t>
+          <t>0,0; 5,75</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 77,61</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>11,88; 89,07</t>
+          <t>0,0; 3,67</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>26,09; 87,26</t>
+          <t>0,0; 3,97</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>10,36; 68,17</t>
+          <t>0,83; 7,14</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>7,21; 58,77</t>
+          <t>0,86; 10,09</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>22,96; 78,23</t>
+          <t>0,0; 4,01</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>0,73; 4,43</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>0,35; 3,22</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>0,46; 3,35</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>1,32; 6,02</t>
+        </is>
+      </c>
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>0,97; 6,58</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 2,89</t>
         </is>
       </c>
     </row>
@@ -796,62 +905,92 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>33,66%</t>
+          <t>2,34%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>30,67%</t>
+          <t>2,27%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>38,09%</t>
+          <t>1,43%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>100,0%</t>
+          <t>1,92%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
+          <t>4,98%</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>3,06%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>45,86%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>49,73%</t>
-        </is>
-      </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>44,87%</t>
+          <t>1,44%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>25,74%</t>
+          <t>2,0%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>34,96%</t>
+          <t>1,01%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>44,04%</t>
+          <t>1,66%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>77,25%</t>
+          <t>3,49%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>1,23%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>1,88%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>1,7%</t>
+        </is>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>1,5%</t>
+        </is>
+      </c>
+      <c r="S6" s="2" t="inlineStr">
+        <is>
+          <t>3,36%</t>
+        </is>
+      </c>
+      <c r="T6" s="2" t="inlineStr">
+        <is>
+          <t>3,27%</t>
         </is>
       </c>
     </row>
@@ -864,62 +1003,92 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>8,62; 61,24</t>
+          <t>0,56; 5,37</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 62,29</t>
+          <t>0,62; 5,9</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>11,37; 76,56</t>
+          <t>0,43; 4,03</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>69,43; 100</t>
+          <t>0,53; 5,6</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0; 36,25</t>
+          <t>1,66; 11,35</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>14,37; 86,82</t>
+          <t>0,91; 8,27</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>17,39; 79,31</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>13,97; 85,37</t>
+          <t>0,45; 3,89</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>6,85; 52,9</t>
+          <t>0,75; 4,44</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>11,8; 60,94</t>
+          <t>0,0; 3,38</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>19,91; 69,39</t>
+          <t>0,52; 4,99</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>47,3; 95,13</t>
+          <t>1,26; 7,85</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>0,3; 2,84</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>0,8; 3,49</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>0,79; 3,17</t>
+        </is>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>0,47; 3,41</t>
+        </is>
+      </c>
+      <c r="S7" s="2" t="inlineStr">
+        <is>
+          <t>1,48; 7,18</t>
+        </is>
+      </c>
+      <c r="T7" s="2" t="inlineStr">
+        <is>
+          <t>1,6; 6,36</t>
         </is>
       </c>
     </row>
@@ -936,62 +1105,92 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>8,29%</t>
+          <t>0,36%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>13,47%</t>
+          <t>0,61%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>22,17%</t>
+          <t>1,68%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>42,83%</t>
+          <t>1,17%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>33,01%</t>
+          <t>1,33%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>16,77%</t>
+          <t>3,14%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>11,73%</t>
+          <t>2,34%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>19,89%</t>
+          <t>1,32%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>23,66%</t>
+          <t>0,71%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>15,58%</t>
+          <t>1,56%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>17,31%</t>
+          <t>1,16%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>28,45%</t>
+          <t>1,15%</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>1,37%</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>0,97%</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>1,19%</t>
+        </is>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>1,37%</t>
+        </is>
+      </c>
+      <c r="S8" s="2" t="inlineStr">
+        <is>
+          <t>1,25%</t>
+        </is>
+      </c>
+      <c r="T8" s="2" t="inlineStr">
+        <is>
+          <t>2,24%</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1203,92 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 48,79</t>
+          <t>0,0; 1,97</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 41,85</t>
+          <t>0,0; 2,18</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>1,64; 52,46</t>
+          <t>0,58; 3,78</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>13,77; 85,03</t>
+          <t>0,35; 3,12</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>14,22; 55,65</t>
+          <t>0,42; 3,63</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>6,27; 35,95</t>
+          <t>0,0; 15,49</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>3,57; 31,43</t>
+          <t>0,9; 4,45</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>6,14; 47,27</t>
+          <t>0,45; 3,11</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>9,37; 41,22</t>
+          <t>0,23; 1,92</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>5,99; 29,12</t>
+          <t>0,59; 3,55</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>6,39; 34,2</t>
+          <t>0,36; 3,12</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>9,64; 50,06</t>
+          <t>0,0; 3,5</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>0,63; 2,65</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>0,39; 1,93</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>0,55; 2,31</t>
+        </is>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>0,64; 2,65</t>
+        </is>
+      </c>
+      <c r="S9" s="2" t="inlineStr">
+        <is>
+          <t>0,46; 2,61</t>
+        </is>
+      </c>
+      <c r="T9" s="2" t="inlineStr">
+        <is>
+          <t>0,61; 7,57</t>
         </is>
       </c>
     </row>
@@ -1076,62 +1305,92 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>47,07%</t>
+          <t>3,68%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>43,3%</t>
+          <t>3,56%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>38,41%</t>
+          <t>3,23%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>33,18%</t>
+          <t>3,07%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>57,11%</t>
+          <t>5,57%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>53,43%</t>
+          <t>3,94%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>58,86%</t>
+          <t>5,69%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>21,89%</t>
+          <t>4,73%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>52,87%</t>
+          <t>5,8%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>48,81%</t>
+          <t>3,6%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>49,61%</t>
+          <t>1,33%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>30,42%</t>
+          <t>3,37%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>4,72%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>4,15%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>4,53%</t>
+        </is>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>3,34%</t>
+        </is>
+      </c>
+      <c r="S10" s="2" t="inlineStr">
+        <is>
+          <t>3,56%</t>
+        </is>
+      </c>
+      <c r="T10" s="2" t="inlineStr">
+        <is>
+          <t>3,66%</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1403,92 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>27,12; 68,09</t>
+          <t>1,83; 6,35</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>21,62; 64,44</t>
+          <t>1,81; 5,96</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>19,25; 58,38</t>
+          <t>1,61; 5,49</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>18,2; 51,24</t>
+          <t>1,32; 6,01</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>38,97; 75,53</t>
+          <t>2,92; 9,44</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>35,96; 70,82</t>
+          <t>1,78; 7,93</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>41,06; 74,72</t>
+          <t>3,42; 8,78</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>5,92; 54,63</t>
+          <t>2,83; 7,85</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>39,83; 67,38</t>
+          <t>3,84; 8,55</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>33,2; 62,08</t>
+          <t>1,67; 6,26</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>36,42; 61,44</t>
+          <t>0,41; 3,67</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>17,29; 45,52</t>
+          <t>1,64; 6,33</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>3,29; 6,76</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>2,89; 5,95</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>3,1; 6,3</t>
+        </is>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>1,93; 4,92</t>
+        </is>
+      </c>
+      <c r="S11" s="2" t="inlineStr">
+        <is>
+          <t>1,88; 5,74</t>
+        </is>
+      </c>
+      <c r="T11" s="2" t="inlineStr">
+        <is>
+          <t>2,0; 5,72</t>
         </is>
       </c>
     </row>
@@ -1216,62 +1505,92 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>47,11%</t>
+          <t>3,33%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>33,17%</t>
+          <t>1,94%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>66,0%</t>
+          <t>5,68%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>44,26%</t>
+          <t>6,7%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>85,24%</t>
+          <t>5,28%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>73,23%</t>
+          <t>7,16%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>69,82%</t>
+          <t>9,29%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>74,42%</t>
+          <t>8,44%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>70,95%</t>
+          <t>8,33%</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>59,73%</t>
+          <t>6,69%</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>68,29%</t>
+          <t>10,93%</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>61,59%</t>
+          <t>7,97%</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>6,34%</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>5,19%</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>7,03%</t>
+        </is>
+      </c>
+      <c r="R12" s="2" t="inlineStr">
+        <is>
+          <t>6,7%</t>
+        </is>
+      </c>
+      <c r="S12" s="2" t="inlineStr">
+        <is>
+          <t>8,24%</t>
+        </is>
+      </c>
+      <c r="T12" s="2" t="inlineStr">
+        <is>
+          <t>7,57%</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1603,92 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>20,33; 73,56</t>
+          <t>1,4; 6,54</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>13,56; 62,56</t>
+          <t>0,76; 4,3</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>44,68; 83,34</t>
+          <t>3,15; 8,84</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>24,41; 68,84</t>
+          <t>3,67; 11,35</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>66,52; 96,29</t>
+          <t>2,89; 9,85</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>56,46; 86,94</t>
+          <t>4,39; 12,01</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>52,34; 84,72</t>
+          <t>6,14; 13,93</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>58,08; 87,8</t>
+          <t>5,44; 12,7</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>56,21; 83,55</t>
+          <t>5,35; 12,32</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>44,76; 72,92</t>
+          <t>3,54; 11,56</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>56,09; 79,54</t>
+          <t>7,13; 15,92</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>48,34; 74,91</t>
+          <t>5,03; 12,68</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>4,23; 9,17</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>3,61; 7,43</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>4,97; 9,62</t>
+        </is>
+      </c>
+      <c r="R13" s="2" t="inlineStr">
+        <is>
+          <t>4,38; 9,46</t>
+        </is>
+      </c>
+      <c r="S13" s="2" t="inlineStr">
+        <is>
+          <t>5,82; 11,37</t>
+        </is>
+      </c>
+      <c r="T13" s="2" t="inlineStr">
+        <is>
+          <t>5,01; 10,45</t>
         </is>
       </c>
     </row>
@@ -1356,62 +1705,92 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>90,74%</t>
+          <t>19,35%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>97,19%</t>
+          <t>18,44%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>100,0%</t>
+          <t>15,64%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>83,15%</t>
+          <t>10,62%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>95,87%</t>
+          <t>15,74%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>92,57%</t>
+          <t>20,45%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>94,41%</t>
+          <t>21,93%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>85,8%</t>
+          <t>20,35%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>93,65%</t>
+          <t>22,58%</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>94,4%</t>
+          <t>20,79%</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>96,31%</t>
+          <t>20,55%</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>84,82%</t>
+          <t>14,36%</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>20,82%</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>19,52%</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>19,58%</t>
+        </is>
+      </c>
+      <c r="R14" s="2" t="inlineStr">
+        <is>
+          <t>16,32%</t>
+        </is>
+      </c>
+      <c r="S14" s="2" t="inlineStr">
+        <is>
+          <t>18,51%</t>
+        </is>
+      </c>
+      <c r="T14" s="2" t="inlineStr">
+        <is>
+          <t>16,99%</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1803,92 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>75,94; 97,89</t>
+          <t>12,79; 29,86</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>85,59; 100,0</t>
+          <t>13,11; 25,58</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>93,64; 100</t>
+          <t>10,85; 21,42</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>63,96; 96,14</t>
+          <t>6,05; 17,51</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>88,04; 100,0</t>
+          <t>9,75; 22,84</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>83,3; 97,3</t>
+          <t>14,17; 30,11</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>85,4; 98,52</t>
+          <t>16,62; 29,67</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>66,43; 96,16</t>
+          <t>15,81; 26,22</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>86,62; 97,67</t>
+          <t>16,91; 29,55</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>88,98; 97,81</t>
+          <t>13,32; 30,74</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>91,02; 99,05</t>
+          <t>13,48; 29,53</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>71,8; 92,31</t>
+          <t>9,04; 22,65</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>15,97; 26,65</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>15,45; 23,68</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>15,45; 24,61</t>
+        </is>
+      </c>
+      <c r="R15" s="2" t="inlineStr">
+        <is>
+          <t>11,52; 22,77</t>
+        </is>
+      </c>
+      <c r="S15" s="2" t="inlineStr">
+        <is>
+          <t>13,36; 24,16</t>
+        </is>
+      </c>
+      <c r="T15" s="2" t="inlineStr">
+        <is>
+          <t>12,1; 22,77</t>
         </is>
       </c>
     </row>
@@ -1496,62 +1905,92 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>62,84%</t>
+          <t>5,24%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>54,73%</t>
+          <t>4,5%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>56,23%</t>
+          <t>4,62%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>56,89%</t>
+          <t>4,27%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>72,32%</t>
+          <t>5,78%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>67,66%</t>
+          <t>6,35%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>69,11%</t>
+          <t>7,22%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>66,14%</t>
+          <t>6,59%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>68,01%</t>
+          <t>7,17%</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>61,94%</t>
+          <t>6,69%</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>63,57%</t>
+          <t>7,19%</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>61,68%</t>
+          <t>5,77%</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>6,25%</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>5,57%</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>5,93%</t>
+        </is>
+      </c>
+      <c r="R16" s="2" t="inlineStr">
+        <is>
+          <t>5,51%</t>
+        </is>
+      </c>
+      <c r="S16" s="2" t="inlineStr">
+        <is>
+          <t>6,49%</t>
+        </is>
+      </c>
+      <c r="T16" s="2" t="inlineStr">
+        <is>
+          <t>6,06%</t>
         </is>
       </c>
     </row>
@@ -1564,78 +2003,2419 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>49,37; 74,15</t>
+          <t>3,9; 7,72</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>42,55; 65,32</t>
+          <t>3,45; 5,8</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>42,11; 67,34</t>
+          <t>3,63; 5,97</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>46,2; 66,95</t>
+          <t>3,0; 5,69</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>64,84; 80,48</t>
+          <t>4,37; 7,77</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>60,52; 74,45</t>
+          <t>4,82; 8,72</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>61,92; 75,73</t>
+          <t>5,86; 9,14</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>55,84; 75,38</t>
+          <t>5,4; 8,06</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>59,98; 74,26</t>
+          <t>5,84; 9,01</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>54,58; 68,95</t>
+          <t>5,05; 9,07</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>55,1; 69,49</t>
+          <t>5,32; 9,42</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>53,52; 69,11</t>
+          <t>4,18; 7,82</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>5,15; 7,69</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>4,83; 6,62</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>5,03; 7,04</t>
+        </is>
+      </c>
+      <c r="R17" s="2" t="inlineStr">
+        <is>
+          <t>4,34; 6,93</t>
+        </is>
+      </c>
+      <c r="S17" s="2" t="inlineStr">
+        <is>
+          <t>5,28; 7,96</t>
+        </is>
+      </c>
+      <c r="T17" s="2" t="inlineStr">
+        <is>
+          <t>4,77; 7,61</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="O1:T1"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="I1:N1"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="C1:H1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:T25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+    <col width="14" customWidth="1" min="18" max="18"/>
+    <col width="14" customWidth="1" min="19" max="19"/>
+    <col width="14" customWidth="1" min="20" max="20"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que requiere cuidados especiales &gt;=60 años (tasa de respuesta: 99,06%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
+      <c r="R1" s="3" t="n"/>
+      <c r="S1" s="3" t="n"/>
+      <c r="T1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="R2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="S2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="T2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+      <c r="R3" s="2" t="n"/>
+      <c r="S3" s="2" t="n"/>
+      <c r="T3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>16-24</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="S4" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>19086</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>7790</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>7668</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>14111</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>1191</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>337</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>5431</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>5938</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>13852</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>1267</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>272</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>19086</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>13221</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>13606</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>27963</t>
+        </is>
+      </c>
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>2458</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>609</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>7074; 40574</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>0; 25990</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>0; 28537</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>4201; 41979</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>371; 2909</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>0; 2247</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>0; 18890</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>0; 20382</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>3854; 33190</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>321; 3772</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>0; 1384</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>7021; 42871</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>3641; 33443</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>4745; 34344</t>
+        </is>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>12123; 55501</t>
+        </is>
+      </c>
+      <c r="S6" s="2" t="inlineStr">
+        <is>
+          <t>775; 5230</t>
+        </is>
+      </c>
+      <c r="T6" s="2" t="inlineStr">
+        <is>
+          <t>0; 2131</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>25-34</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="S7" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="T7" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>13338</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>12803</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>8432</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>10881</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>2482</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>1312</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>7328</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>10312</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>4968</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>784</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>1362</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>13338</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>20131</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>18743</t>
+        </is>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>15849</t>
+        </is>
+      </c>
+      <c r="S8" s="2" t="inlineStr">
+        <is>
+          <t>3267</t>
+        </is>
+      </c>
+      <c r="T8" s="2" t="inlineStr">
+        <is>
+          <t>2675</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>3214; 30555</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>3511; 33225</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>2544; 23716</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>2989; 31748</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>830; 5660</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>392; 3550</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>2262; 19745</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>3859; 22904</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>0; 16658</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>243; 2356</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>493; 3061</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>3216; 30953</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>8531; 37344</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>8714; 35016</t>
+        </is>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>4934; 36091</t>
+        </is>
+      </c>
+      <c r="S9" s="2" t="inlineStr">
+        <is>
+          <t>1435; 6973</t>
+        </is>
+      </c>
+      <c r="T9" s="2" t="inlineStr">
+        <is>
+          <t>1310; 5213</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>35-44</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="S10" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="T10" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>2460</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>4173</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>11425</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>7746</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>799</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>1735</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>16636</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>9440</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>5098</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>10694</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>624</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>533</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>19096</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>13614</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>16523</t>
+        </is>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>18439</t>
+        </is>
+      </c>
+      <c r="S11" s="2" t="inlineStr">
+        <is>
+          <t>1422</t>
+        </is>
+      </c>
+      <c r="T11" s="2" t="inlineStr">
+        <is>
+          <t>2268</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>0; 13524</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>0; 14846</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>3958; 25625</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>2291; 20609</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>254; 2183</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>0; 8555</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>6366; 31562</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>3235; 22250</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>1629; 13700</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>4064; 24375</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>193; 1680</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>0; 1617</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>8820; 36985</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>5490; 26946</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>7619; 32109</t>
+        </is>
+      </c>
+      <c r="R12" s="2" t="inlineStr">
+        <is>
+          <t>8605; 35765</t>
+        </is>
+      </c>
+      <c r="S12" s="2" t="inlineStr">
+        <is>
+          <t>528; 2976</t>
+        </is>
+      </c>
+      <c r="T12" s="2" t="inlineStr">
+        <is>
+          <t>622; 7683</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>17.0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>17.0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>22.0</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>27.0</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>28.0</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>32.0</t>
+        </is>
+      </c>
+      <c r="R13" s="2" t="inlineStr">
+        <is>
+          <t>18.0</t>
+        </is>
+      </c>
+      <c r="S13" s="2" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+      <c r="T13" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>23817</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>22969</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>20567</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>20041</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>3245</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>1952</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>39040</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>31740</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>38246</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>23530</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>693</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>1672</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>62858</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>54710</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>58812</t>
+        </is>
+      </c>
+      <c r="R14" s="2" t="inlineStr">
+        <is>
+          <t>43571</t>
+        </is>
+      </c>
+      <c r="S14" s="2" t="inlineStr">
+        <is>
+          <t>3938</t>
+        </is>
+      </c>
+      <c r="T14" s="2" t="inlineStr">
+        <is>
+          <t>3625</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>11815; 41115</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>11660; 38519</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>10288; 35012</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>8630; 39263</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>1704; 5501</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>882; 3929</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>23454; 60230</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>19038; 52752</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>25362; 56427</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>10904; 40850</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>213; 1916</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>815; 3139</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>43879; 90091</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>38087; 78409</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>40180; 81769</t>
+        </is>
+      </c>
+      <c r="R15" s="2" t="inlineStr">
+        <is>
+          <t>25275; 64252</t>
+        </is>
+      </c>
+      <c r="S15" s="2" t="inlineStr">
+        <is>
+          <t>2079; 6347</t>
+        </is>
+      </c>
+      <c r="T15" s="2" t="inlineStr">
+        <is>
+          <t>1982; 5673</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>55-64</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>22.0</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>22.0</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>23.0</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>27.0</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>27.0</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>37.0</t>
+        </is>
+      </c>
+      <c r="R16" s="2" t="inlineStr">
+        <is>
+          <t>24.0</t>
+        </is>
+      </c>
+      <c r="S16" s="2" t="inlineStr">
+        <is>
+          <t>32.0</t>
+        </is>
+      </c>
+      <c r="T16" s="2" t="inlineStr">
+        <is>
+          <t>27.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>16502</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>9744</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>27928</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>32300</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>2349</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>2963</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>47084</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>42461</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>42755</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>34105</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>5331</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>3440</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>63586</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>52206</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>70682</t>
+        </is>
+      </c>
+      <c r="R17" s="2" t="inlineStr">
+        <is>
+          <t>66405</t>
+        </is>
+      </c>
+      <c r="S17" s="2" t="inlineStr">
+        <is>
+          <t>7681</t>
+        </is>
+      </c>
+      <c r="T17" s="2" t="inlineStr">
+        <is>
+          <t>6403</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>6952; 32373</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>3836; 21600</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>15487; 43499</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>17687; 54713</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>1286; 4380</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>1817; 4968</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>31129; 70604</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>27380; 63879</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>27466; 63252</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>18068; 58901</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>3479; 7764</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>2174; 5475</t>
+        </is>
+      </c>
+      <c r="O18" s="2" t="inlineStr">
+        <is>
+          <t>42374; 91920</t>
+        </is>
+      </c>
+      <c r="P18" s="2" t="inlineStr">
+        <is>
+          <t>36325; 74708</t>
+        </is>
+      </c>
+      <c r="Q18" s="2" t="inlineStr">
+        <is>
+          <t>49941; 96761</t>
+        </is>
+      </c>
+      <c r="R18" s="2" t="inlineStr">
+        <is>
+          <t>43385; 93828</t>
+        </is>
+      </c>
+      <c r="S18" s="2" t="inlineStr">
+        <is>
+          <t>5432; 10600</t>
+        </is>
+      </c>
+      <c r="T18" s="2" t="inlineStr">
+        <is>
+          <t>4240; 8838</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65 Y MAS</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>24.0</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>35.0</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>29.0</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>21.0</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>41.0</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>49.0</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>48.0</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>23.0</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>23.0</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>17.0</t>
+        </is>
+      </c>
+      <c r="O19" s="2" t="inlineStr">
+        <is>
+          <t>65.0</t>
+        </is>
+      </c>
+      <c r="P19" s="2" t="inlineStr">
+        <is>
+          <t>84.0</t>
+        </is>
+      </c>
+      <c r="Q19" s="2" t="inlineStr">
+        <is>
+          <t>77.0</t>
+        </is>
+      </c>
+      <c r="R19" s="2" t="inlineStr">
+        <is>
+          <t>37.0</t>
+        </is>
+      </c>
+      <c r="S19" s="2" t="inlineStr">
+        <is>
+          <t>42.0</t>
+        </is>
+      </c>
+      <c r="T19" s="2" t="inlineStr">
+        <is>
+          <t>38.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>105504</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>97578</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>82785</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>59356</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>7373</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>8996</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>157412</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>141391</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>156425</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>148560</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>13097</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>8311</t>
+        </is>
+      </c>
+      <c r="O20" s="2" t="inlineStr">
+        <is>
+          <t>262917</t>
+        </is>
+      </c>
+      <c r="P20" s="2" t="inlineStr">
+        <is>
+          <t>238969</t>
+        </is>
+      </c>
+      <c r="Q20" s="2" t="inlineStr">
+        <is>
+          <t>239211</t>
+        </is>
+      </c>
+      <c r="R20" s="2" t="inlineStr">
+        <is>
+          <t>207916</t>
+        </is>
+      </c>
+      <c r="S20" s="2" t="inlineStr">
+        <is>
+          <t>20470</t>
+        </is>
+      </c>
+      <c r="T20" s="2" t="inlineStr">
+        <is>
+          <t>17307</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>69734; 162806</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>69354; 135354</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>57410; 113356</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>33807; 97872</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>4568; 10699</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>6234; 13246</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>119274; 212978</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>109874; 182187</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>117104; 204661</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>95207; 219718</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>8592; 18820</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>5231; 13107</t>
+        </is>
+      </c>
+      <c r="O21" s="2" t="inlineStr">
+        <is>
+          <t>201698; 336568</t>
+        </is>
+      </c>
+      <c r="P21" s="2" t="inlineStr">
+        <is>
+          <t>189080; 289905</t>
+        </is>
+      </c>
+      <c r="Q21" s="2" t="inlineStr">
+        <is>
+          <t>188721; 300719</t>
+        </is>
+      </c>
+      <c r="R21" s="2" t="inlineStr">
+        <is>
+          <t>146761; 290016</t>
+        </is>
+      </c>
+      <c r="S21" s="2" t="inlineStr">
+        <is>
+          <t>14766; 26716</t>
+        </is>
+      </c>
+      <c r="T21" s="2" t="inlineStr">
+        <is>
+          <t>12328; 23192</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>51.0</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>59.0</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>64.0</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>43.0</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>50.0</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>46.0</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>85.0</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>98.0</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>102.0</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>56.0</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>58.0</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>48.0</t>
+        </is>
+      </c>
+      <c r="O22" s="2" t="inlineStr">
+        <is>
+          <t>136.0</t>
+        </is>
+      </c>
+      <c r="P22" s="2" t="inlineStr">
+        <is>
+          <t>157.0</t>
+        </is>
+      </c>
+      <c r="Q22" s="2" t="inlineStr">
+        <is>
+          <t>166.0</t>
+        </is>
+      </c>
+      <c r="R22" s="2" t="inlineStr">
+        <is>
+          <t>99.0</t>
+        </is>
+      </c>
+      <c r="S22" s="2" t="inlineStr">
+        <is>
+          <t>108.0</t>
+        </is>
+      </c>
+      <c r="T22" s="2" t="inlineStr">
+        <is>
+          <t>94.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>180707</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>155058</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>158804</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>144434</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>17440</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>17296</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>260172</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>237792</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>258773</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>235709</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>21796</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>15590</t>
+        </is>
+      </c>
+      <c r="O23" s="2" t="inlineStr">
+        <is>
+          <t>440880</t>
+        </is>
+      </c>
+      <c r="P23" s="2" t="inlineStr">
+        <is>
+          <t>392850</t>
+        </is>
+      </c>
+      <c r="Q23" s="2" t="inlineStr">
+        <is>
+          <t>417578</t>
+        </is>
+      </c>
+      <c r="R23" s="2" t="inlineStr">
+        <is>
+          <t>380144</t>
+        </is>
+      </c>
+      <c r="S23" s="2" t="inlineStr">
+        <is>
+          <t>39236</t>
+        </is>
+      </c>
+      <c r="T23" s="2" t="inlineStr">
+        <is>
+          <t>32886</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>134349; 266169</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>118794; 199842</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>124679; 205042</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>101374; 192260</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>13172; 23452</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>13129; 23741</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>211362; 329569</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>194745; 290958</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>210669; 325064</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>177843; 319600</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>16141; 28551</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>11295; 21155</t>
+        </is>
+      </c>
+      <c r="O24" s="2" t="inlineStr">
+        <is>
+          <t>363168; 541918</t>
+        </is>
+      </c>
+      <c r="P24" s="2" t="inlineStr">
+        <is>
+          <t>340550; 466809</t>
+        </is>
+      </c>
+      <c r="Q24" s="2" t="inlineStr">
+        <is>
+          <t>354090; 495794</t>
+        </is>
+      </c>
+      <c r="R24" s="2" t="inlineStr">
+        <is>
+          <t>299691; 478448</t>
+        </is>
+      </c>
+      <c r="S24" s="2" t="inlineStr">
+        <is>
+          <t>31920; 48150</t>
+        </is>
+      </c>
+      <c r="T24" s="2" t="inlineStr">
+        <is>
+          <t>25893; 41292</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="O1:T1"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="I1:N1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="K1:N1"/>
-    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="C1:H1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
